--- a/FSE Project Requirements.xlsx
+++ b/FSE Project Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27421"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1691EA4-3000-4B85-8B70-62C3F6BD3363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D484807A-9FFF-499F-BCF7-FEB950B058F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
   <si>
     <t>F/NF Requirement</t>
   </si>
@@ -48,119 +48,254 @@
     <t>Requirement Source</t>
   </si>
   <si>
-    <t>The website should have 95% uptime</t>
-  </si>
-  <si>
-    <t>The website should store previous users' handles/nicknames</t>
-  </si>
-  <si>
-    <t>The website should show the list of waiting players</t>
-  </si>
-  <si>
-    <t>The website should have a button that allows 2 players to join the same match</t>
-  </si>
-  <si>
-    <t>The website should generate the grid of letters once a match is found</t>
-  </si>
-  <si>
-    <t>The words to search for should be embedded into the grid with random letters</t>
-  </si>
-  <si>
-    <t>The correct words can be reversed, horizontal, vertical, or diagonal</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>UREQ001</t>
+  </si>
+  <si>
+    <t>The website will provide a login screen for users to enter their credentials</t>
+  </si>
+  <si>
+    <t>UI Item</t>
+  </si>
+  <si>
+    <t>UREQ002</t>
+  </si>
+  <si>
+    <t>The website will have a button for new players to enter a unique handle/nickname</t>
+  </si>
+  <si>
+    <t>SREQ001</t>
+  </si>
+  <si>
+    <t>The server will store previous users' handles/nicknames</t>
+  </si>
+  <si>
+    <t>UREQ003</t>
+  </si>
+  <si>
+    <t>The website will store the total number of words a selected user has made throughout multiple games with their handle/nickname</t>
+  </si>
+  <si>
+    <t>Leaderboard Item</t>
+  </si>
+  <si>
+    <t>SREQ002</t>
+  </si>
+  <si>
+    <t>The website will block nicknames that have already been taken</t>
+  </si>
+  <si>
+    <t>Login Item</t>
+  </si>
+  <si>
+    <t>UREQ004</t>
+  </si>
+  <si>
+    <t>The website will show the list of waiting players</t>
+  </si>
+  <si>
+    <t>UREQ005</t>
+  </si>
+  <si>
+    <t>The website will add the player's handle/nickname to the list of "waiting players" once the player clicks a "play with [#] players" button</t>
+  </si>
+  <si>
+    <t>UREQ006</t>
+  </si>
+  <si>
+    <t>The website will support the ability for players to message one another while waiting for a match</t>
+  </si>
+  <si>
+    <t>UREQ007</t>
+  </si>
+  <si>
+    <t>The website will have a player leaderboard that will show the number of words any given user has chosen throughout their multiple games played</t>
+  </si>
+  <si>
+    <t>SREQ003</t>
+  </si>
+  <si>
+    <t>The leaderboard will show the five players with the most words selected across all of the matches they have played</t>
+  </si>
+  <si>
+    <t>UREQ008</t>
+  </si>
+  <si>
+    <t>The website will have a button that allows players to join the same match</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>SREQ004</t>
+  </si>
+  <si>
+    <t>The server shall support games of at least 2 players and up to 4 players</t>
+  </si>
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
+    <t>SREQ005</t>
+  </si>
+  <si>
+    <t>The server shall support up to 5 concurrent games at any given time</t>
+  </si>
+  <si>
+    <t>UREQ009</t>
+  </si>
+  <si>
+    <t>The website will generate the grid of letters once a match is found</t>
+  </si>
+  <si>
+    <t>SREQ006</t>
+  </si>
+  <si>
+    <t>The grid that is generated will be a square that is 50 x 50 letters</t>
+  </si>
+  <si>
+    <t>Grid Item</t>
+  </si>
+  <si>
+    <t>UREQ010</t>
+  </si>
+  <si>
+    <t>The website will store a bank of all of the potential words for a game</t>
+  </si>
+  <si>
+    <t>Database Item</t>
+  </si>
+  <si>
+    <t>SREQ007</t>
+  </si>
+  <si>
+    <t>All of the words in the potential wordlist will 5 letters</t>
+  </si>
+  <si>
+    <t>SREQ008</t>
+  </si>
+  <si>
+    <t>All of the words in the potential wordlist will not have any smaller words within them</t>
+  </si>
+  <si>
+    <t>SREQ009</t>
+  </si>
+  <si>
+    <t>The website will randomly select words for a game from its wordbank</t>
+  </si>
+  <si>
+    <t>UREQ011</t>
+  </si>
+  <si>
+    <t>The correct words will be reversed, horizontal, vertical, or diagonal</t>
+  </si>
+  <si>
+    <t>SREQ010</t>
+  </si>
+  <si>
+    <t>The words will not be a combination of reversed, horizontal, vertical, and diagonal (the words will only be one)</t>
+  </si>
+  <si>
+    <t>SREQ011</t>
+  </si>
+  <si>
+    <t>The website will ensure that no words overlap one another when they're added to the game board</t>
+  </si>
+  <si>
+    <t>SREQ012</t>
+  </si>
+  <si>
+    <t>The words to search for will be embedded into the grid with random letters</t>
+  </si>
+  <si>
+    <t>UREQ012</t>
   </si>
   <si>
     <t>The website will support users to select letters, and the letters will change to that user's color</t>
   </si>
   <si>
-    <t>Every player will be assigned a unique color during the game</t>
-  </si>
-  <si>
-    <t>The entire word word will change to the user's color once they select the first and last letter of the word with their mouse</t>
-  </si>
-  <si>
-    <t>The website will update with up to a 1 second delay to show the status of the game in near realtime</t>
+    <t>UREQ013</t>
+  </si>
+  <si>
+    <t>The entire word will change to the user's color once they select the first and last letter of the word with their mouse</t>
+  </si>
+  <si>
+    <t>SREQ013</t>
+  </si>
+  <si>
+    <t>Every player will be assigned a unique color at the beginning of the game</t>
+  </si>
+  <si>
+    <t>UREQ014</t>
+  </si>
+  <si>
+    <t>The website shall update with up to a 1 second delay to show the status of the game in near realtime</t>
+  </si>
+  <si>
+    <t>Reliability Item</t>
+  </si>
+  <si>
+    <t>UREQ015</t>
   </si>
   <si>
     <t>The first user to select the first and last letter of one of the words will "win" the word</t>
   </si>
   <si>
+    <t>SREQ014</t>
+  </si>
+  <si>
     <t>The total number of words won will be added to the user's individual scores</t>
   </si>
   <si>
-    <t>The system will highlight the start letter of one of the ramaining words if a start letter hasn't been found within 30 seconds</t>
+    <t>UREQ016</t>
+  </si>
+  <si>
+    <t>The system will highlight the start letter of one of the remaining words if a start letter hasn't been found within 30 seconds</t>
+  </si>
+  <si>
+    <t>SREQ015</t>
   </si>
   <si>
     <t>The system's color for highlighting will be unique to the system</t>
   </si>
   <si>
-    <t>The website will store a bank of all of the potential words for a game</t>
-  </si>
-  <si>
-    <t>The website will randomly select words for a game from its wordbank</t>
-  </si>
-  <si>
-    <t>The website will ensure that no words are able to overlap one another when they're added to the game board</t>
-  </si>
-  <si>
-    <t>The server will support up to 5 concrrent games at any given time</t>
-  </si>
-  <si>
-    <t>The server will support games of at least 2 players and up to 4 players</t>
-  </si>
-  <si>
-    <t>The website will have a player leaderboard that will show the number of words any given user has chosen throughout their multiple games played</t>
-  </si>
-  <si>
-    <t>One server will host all of the players</t>
-  </si>
-  <si>
-    <t>The website will support the ability for players to message one another while waiting for a match</t>
-  </si>
-  <si>
-    <t>The website will provide a login screen for users to enter their credentials</t>
-  </si>
-  <si>
-    <t>The website will have a button for new players to enter a unique handle/nickname</t>
-  </si>
-  <si>
-    <t>The website will block nicknames that have already been taken</t>
-  </si>
-  <si>
-    <t>The website will store the number of words any selected user has made throughout multiple games with their handle/nickname</t>
-  </si>
-  <si>
-    <t>The website will add the player's handle/nickname to the list of "waiting players" once the player clicks a "play with [#] players" button</t>
-  </si>
-  <si>
-    <t>The grid that is generated will be a square that is 50 x 50 letters</t>
-  </si>
-  <si>
-    <t>All of the words in the potential wordlist will be greater than 3 letters</t>
+    <t>UREQ017</t>
+  </si>
+  <si>
+    <t>Once a word is "won" by one user, it will not be able to be altered by another player</t>
+  </si>
+  <si>
+    <t>UREQ018</t>
   </si>
   <si>
     <t>The game will end once every word has been "won" by a player</t>
   </si>
   <si>
-    <t>The game winner will be determind by the user who "won" the most words during the play session</t>
+    <t>SREQ016</t>
+  </si>
+  <si>
+    <t>The game's winner will be determind by the user who "won" the most words during the play session</t>
+  </si>
+  <si>
+    <t>SREQ017</t>
   </si>
   <si>
     <t>The website will store the number of words any selected user has made throughout the play session to determine a winner at the end of the session</t>
   </si>
   <si>
-    <t>The games will not be timed, so there is no maximum amount of time for a play session</t>
-  </si>
-  <si>
-    <t>Once a word is "won" by one user, it cannot be altered by another player</t>
-  </si>
-  <si>
-    <t>While players are waiting, there will be a lobby for them to see other online players' handles/nicknames</t>
+    <t>UREQ019</t>
+  </si>
+  <si>
+    <t>The games shall not be timed, so there is no maximum amount of time for a play session</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +308,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -196,9 +337,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -546,188 +688,562 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
       <c r="D16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
       <c r="D17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
       <c r="D22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4">
+        <v>56</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
       <c r="D25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
       <c r="D26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
       <c r="D27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
       <c r="D28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
       <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4">
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
       <c r="D37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" t="s">
-        <v>40</v>
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
